--- a/report/reliability/by-area-conhecimento/Ciências da Saúde.xlsx
+++ b/report/reliability/by-area-conhecimento/Ciências da Saúde.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="47">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -71,22 +71,28 @@
     <t>med.r</t>
   </si>
   <si>
+    <t>Item3</t>
+  </si>
+  <si>
     <t>Item4</t>
   </si>
   <si>
     <t>Item5</t>
   </si>
   <si>
-    <t>Item3</t>
-  </si>
-  <si>
     <t>Item6</t>
   </si>
   <si>
-    <t>Item15</t>
+    <t>Item12</t>
   </si>
   <si>
     <t>Item13</t>
+  </si>
+  <si>
+    <t>Item14</t>
+  </si>
+  <si>
+    <t>Item15</t>
   </si>
   <si>
     <t>Item17</t>
@@ -95,31 +101,13 @@
     <t>Item18</t>
   </si>
   <si>
-    <t>Item14</t>
-  </si>
-  <si>
-    <t>Item12</t>
-  </si>
-  <si>
     <t>Item19</t>
   </si>
   <si>
-    <t>Item2</t>
-  </si>
-  <si>
-    <t>Item11</t>
-  </si>
-  <si>
-    <t>Item16</t>
-  </si>
-  <si>
-    <t>Item9</t>
+    <t>Item21</t>
   </si>
   <si>
     <t>Item23</t>
-  </si>
-  <si>
-    <t>Item21</t>
   </si>
   <si>
     <t>Item statistics</t>
@@ -2475,31 +2463,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.9134744623655914</v>
+        <v>0.8948255204433128</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.9135033695863928</v>
+        <v>0.8957694784505711</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.9405572729812754</v>
+        <v>0.9176605337560362</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.3831896093264633</v>
+        <v>0.3979842309394124</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>10.561144003162068</v>
+        <v>8.594118739257915</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.015225817508897762</v>
+        <v>0.018855550569384285</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.5447963800904976</v>
+        <v>2.4153846153846152</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.6647218994586455</v>
+        <v>0.7027524078546883</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.37018799684372006</v>
+        <v>0.40456744682211787</v>
       </c>
     </row>
     <row r="7">
@@ -2549,28 +2537,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.9017690817028192</v>
+        <v>0.8898779158349386</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.9023815735160056</v>
+        <v>0.891298133330871</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.9294970498591223</v>
+        <v>0.9134303523791856</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.36618521141515786</v>
+        <v>0.4059251256200593</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>9.24396761982187</v>
+        <v>8.199474035196104</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.017437791956703835</v>
+        <v>0.01984498719440173</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.013257282404087955</v>
+        <v>0.015975002830600944</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.3569376713398401</v>
+        <v>0.4092902528428172</v>
       </c>
     </row>
     <row r="12">
@@ -2578,28 +2566,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.9074663167480514</v>
+        <v>0.8775218312592938</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.9075873309163617</v>
+        <v>0.8795990825368082</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.930263521270407</v>
+        <v>0.8972787630029773</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.380349979308829</v>
+        <v>0.3784181997523428</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>9.821027137469075</v>
+        <v>7.305584550929312</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.016284451610249162</v>
+        <v>0.022164284199544644</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.014738342227492741</v>
+        <v>0.012740362250060729</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.36637022343081505</v>
+        <v>0.3689456480870956</v>
       </c>
     </row>
     <row r="13">
@@ -2607,28 +2595,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.9092808558078942</v>
+        <v>0.8856145284240204</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.9092605585549335</v>
+        <v>0.8870425933811266</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.9375105790900967</v>
+        <v>0.9039261282036736</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.38510176827001047</v>
+        <v>0.39555413341448714</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>10.020565964199788</v>
+        <v>7.852894466443212</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.015973564379260306</v>
+        <v>0.020552294349048636</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.01647838033090315</v>
+        <v>0.01401501834765773</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.3705372628796326</v>
+        <v>0.40456744682211787</v>
       </c>
     </row>
     <row r="14">
@@ -2636,28 +2624,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.9080737273777051</v>
+        <v>0.8858398483932537</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.90837046548752</v>
+        <v>0.887253171249242</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.9344032351411256</v>
+        <v>0.9072656306825071</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.3825614928305619</v>
+        <v>0.3960571307683854</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>9.913511733095168</v>
+        <v>7.869429065811107</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.016201128576275498</v>
+        <v>0.020520052661466316</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.014830905936405818</v>
+        <v>0.01444199561452227</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.37018799684372006</v>
+        <v>0.40456744682211787</v>
       </c>
     </row>
     <row r="15">
@@ -2665,28 +2653,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.9069142747410395</v>
+        <v>0.8964878576610188</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.9067867943104622</v>
+        <v>0.897167267312498</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.933854595205635</v>
+        <v>0.9157560906177378</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.3781117163975822</v>
+        <v>0.42097601411349</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>9.728093649419888</v>
+        <v>8.724530058331688</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.01637332356274788</v>
+        <v>0.01857352121207349</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.01581424656507632</v>
+        <v>0.013250140211087072</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.3602423624167386</v>
+        <v>0.4211157662116014</v>
       </c>
     </row>
     <row r="16">
@@ -2694,28 +2682,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.9108305897015921</v>
+        <v>0.89066536047613</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.9110721623572455</v>
+        <v>0.8921849715709642</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.9364342413646922</v>
+        <v>0.9127829718692052</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.39036175748446456</v>
+        <v>0.408142327959022</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>10.245072707347868</v>
+        <v>8.275144797259914</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.015729806824716752</v>
+        <v>0.01971569990979259</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.016203573553016607</v>
+        <v>0.015739057135879485</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.38330210502250317</v>
+        <v>0.41123809073135376</v>
       </c>
     </row>
     <row r="17">
@@ -2723,28 +2711,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.9077284110962499</v>
+        <v>0.8854666505265706</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.9076084101616569</v>
+        <v>0.885765094960929</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.9339664222155502</v>
+        <v>0.9048349394880416</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.38040922032994057</v>
+        <v>0.39252476861302055</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>9.823495966999733</v>
+        <v>7.7538918131719665</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.016230878479675685</v>
+        <v>0.0204982197345116</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.016105675381437833</v>
+        <v>0.015531454706215926</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.36254681693844654</v>
+        <v>0.40385140229268635</v>
       </c>
     </row>
     <row r="18">
@@ -2752,28 +2740,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.9038347868875223</v>
+        <v>0.8839877133579771</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.9044255437976004</v>
+        <v>0.8844003762117078</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.9321034000029027</v>
+        <v>0.9044589396041101</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.37163843042329897</v>
+        <v>0.38932998212149156</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>9.463046714932743</v>
+        <v>7.650547183712195</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.01715966032599924</v>
+        <v>0.020803370765529083</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.014300114207186158</v>
+        <v>0.01536231456756979</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.3569376713398401</v>
+        <v>0.3743276568732665</v>
       </c>
     </row>
     <row r="19">
@@ -2781,28 +2769,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.9082740389262703</v>
+        <v>0.8876925946468627</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.9081508692378532</v>
+        <v>0.8886751739606481</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.9343405742537231</v>
+        <v>0.9106096389664252</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.38193916483126844</v>
+        <v>0.39948122153435256</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>9.887419311453339</v>
+        <v>7.982722323289442</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.016108164734042522</v>
+        <v>0.02018964837803194</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.015775654389845715</v>
+        <v>0.015589326786204024</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.37018799684372006</v>
+        <v>0.40456744682211787</v>
       </c>
     </row>
     <row r="20">
@@ -2810,28 +2798,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.9144224780585449</v>
+        <v>0.8795946359126007</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.9142802368711006</v>
+        <v>0.8815525709325592</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.9362245136823418</v>
+        <v>0.9045865957545356</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.3999832260206952</v>
+        <v>0.38279745393663617</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>10.665921177316715</v>
+        <v>7.442563995463565</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.015043703015671641</v>
+        <v>0.021978074363082856</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.013831759680854813</v>
+        <v>0.01415896245914597</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.38751103813495275</v>
+        <v>0.3692949141230082</v>
       </c>
     </row>
     <row r="21">
@@ -2839,28 +2827,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.9107596973399059</v>
+        <v>0.8928925840676792</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.9100037776703841</v>
+        <v>0.8928726318834322</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.937916325949068</v>
+        <v>0.9145882503404879</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.38724498762944715</v>
+        <v>0.40987523035651424</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>10.111577509747534</v>
+        <v>8.334682794707303</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.01566338621709609</v>
+        <v>0.01918918215184662</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.01570727617853298</v>
+        <v>0.01457056735402979</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.3743276568732665</v>
+        <v>0.41123809073135376</v>
       </c>
     </row>
     <row r="22">
@@ -2868,28 +2856,28 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.9082586899090966</v>
+        <v>0.8866879122968903</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.9079972733329507</v>
+        <v>0.8874197321548238</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.9362761121770746</v>
+        <v>0.9105644218618755</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.38150490326899866</v>
+        <v>0.396455724264217</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>9.869243078185294</v>
+        <v>7.8825512600061645</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.01616720662382644</v>
+        <v>0.020354786569765648</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.016042066592656067</v>
+        <v>0.0164834292598934</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.3651278746741906</v>
+        <v>0.40456744682211787</v>
       </c>
     </row>
     <row r="23">
@@ -2897,678 +2885,642 @@
         <v>30</v>
       </c>
       <c r="B23" t="n" s="58">
-        <v>0.9112757732825095</v>
+        <v>0.8875055190254512</v>
       </c>
       <c r="C23" t="n" s="59">
-        <v>0.9115606555850339</v>
+        <v>0.8881693349843468</v>
       </c>
       <c r="D23" t="n" s="60">
-        <v>0.9373296431450503</v>
+        <v>0.9098535419084703</v>
       </c>
       <c r="E23" t="n" s="61">
-        <v>0.3918011297470075</v>
+        <v>0.3982576897583425</v>
       </c>
       <c r="F23" t="n" s="62">
-        <v>10.307184676854922</v>
+        <v>7.9420911505804614</v>
       </c>
       <c r="G23" t="n" s="63">
-        <v>0.01575367903581973</v>
+        <v>0.020248934212290202</v>
       </c>
       <c r="H23" t="n" s="64">
-        <v>0.014541398590349957</v>
+        <v>0.015887817685563636</v>
       </c>
       <c r="I23" t="n" s="65">
-        <v>0.3818372827924787</v>
+        <v>0.40456744682211787</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="53">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="69">
         <v>31</v>
       </c>
-      <c r="B24" t="n" s="58">
-        <v>0.9121525478687604</v>
-      </c>
-      <c r="C24" t="n" s="59">
-        <v>0.9123073163324465</v>
-      </c>
-      <c r="D24" t="n" s="60">
-        <v>0.9383267264079709</v>
-      </c>
-      <c r="E24" t="n" s="61">
-        <v>0.3940188114539705</v>
-      </c>
-      <c r="F24" t="n" s="62">
-        <v>10.40345988031386</v>
-      </c>
-      <c r="G24" t="n" s="63">
-        <v>0.015463720164462248</v>
-      </c>
-      <c r="H24" t="n" s="64">
-        <v>0.015795677500526354</v>
-      </c>
-      <c r="I24" t="n" s="65">
-        <v>0.38751103813495275</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="53">
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27" t="s" s="83">
         <v>32</v>
       </c>
-      <c r="B25" t="n" s="58">
-        <v>0.9057813036281406</v>
-      </c>
-      <c r="C25" t="n" s="59">
-        <v>0.9061859181131282</v>
-      </c>
-      <c r="D25" t="n" s="60">
-        <v>0.9310876209121413</v>
-      </c>
-      <c r="E25" t="n" s="61">
-        <v>0.3764463655945677</v>
-      </c>
-      <c r="F25" t="n" s="62">
-        <v>9.659380552334104</v>
-      </c>
-      <c r="G25" t="n" s="63">
-        <v>0.01663363896352957</v>
-      </c>
-      <c r="H25" t="n" s="64">
-        <v>0.015446353770045383</v>
-      </c>
-      <c r="I25" t="n" s="65">
-        <v>0.36254681693844654</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="53">
+      <c r="C27" t="s" s="83">
         <v>33</v>
       </c>
-      <c r="B26" t="n" s="58">
-        <v>0.9091002015329765</v>
-      </c>
-      <c r="C26" t="n" s="59">
-        <v>0.9090115314996576</v>
-      </c>
-      <c r="D26" t="n" s="60">
-        <v>0.9353816233024538</v>
-      </c>
-      <c r="E26" t="n" s="61">
-        <v>0.3843881691671352</v>
-      </c>
-      <c r="F26" t="n" s="62">
-        <v>9.990403690509824</v>
-      </c>
-      <c r="G26" t="n" s="63">
-        <v>0.016017459049351365</v>
-      </c>
-      <c r="H26" t="n" s="64">
-        <v>0.016253296688424092</v>
-      </c>
-      <c r="I26" t="n" s="65">
-        <v>0.3743276568732665</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="53">
+      <c r="D27" t="s" s="83">
         <v>34</v>
       </c>
-      <c r="B27" t="n" s="58">
-        <v>0.908318873181331</v>
-      </c>
-      <c r="C27" t="n" s="59">
-        <v>0.9082348728594046</v>
-      </c>
-      <c r="D27" t="n" s="60">
-        <v>0.9365505556660135</v>
-      </c>
-      <c r="E27" t="n" s="61">
-        <v>0.38217702437694007</v>
-      </c>
-      <c r="F27" t="n" s="62">
-        <v>9.897385871518255</v>
-      </c>
-      <c r="G27" t="n" s="63">
-        <v>0.01613533871733743</v>
-      </c>
-      <c r="H27" t="n" s="64">
-        <v>0.0166571105906914</v>
-      </c>
-      <c r="I27" t="n" s="65">
-        <v>0.3743276568732665</v>
+      <c r="E27" t="s" s="83">
+        <v>35</v>
+      </c>
+      <c r="F27" t="s" s="83">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s" s="83">
+        <v>9</v>
+      </c>
+      <c r="H27" t="s" s="83">
+        <v>10</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s">
-        <v>1</v>
+      <c r="A28" t="s" s="79">
+        <v>18</v>
+      </c>
+      <c r="B28" t="n" s="84">
+        <v>65.0</v>
+      </c>
+      <c r="C28" t="n" s="85">
+        <v>0.6028722540301568</v>
+      </c>
+      <c r="D28" t="n" s="86">
+        <v>0.6060699122372638</v>
+      </c>
+      <c r="E28" t="n" s="87">
+        <v>0.5588652804065053</v>
+      </c>
+      <c r="F28" t="n" s="88">
+        <v>0.5293414406917135</v>
+      </c>
+      <c r="G28" t="n" s="89">
+        <v>1.9846153846153847</v>
+      </c>
+      <c r="H28" t="n" s="90">
+        <v>0.9600180286768657</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s">
-        <v>1</v>
+      <c r="A29" t="s" s="79">
+        <v>19</v>
+      </c>
+      <c r="B29" t="n" s="84">
+        <v>65.0</v>
+      </c>
+      <c r="C29" t="n" s="85">
+        <v>0.8246748255445587</v>
+      </c>
+      <c r="D29" t="n" s="86">
+        <v>0.8155813987475726</v>
+      </c>
+      <c r="E29" t="n" s="87">
+        <v>0.8223532283123921</v>
+      </c>
+      <c r="F29" t="n" s="88">
+        <v>0.7784967730715406</v>
+      </c>
+      <c r="G29" t="n" s="89">
+        <v>1.9846153846153847</v>
+      </c>
+      <c r="H29" t="n" s="90">
+        <v>1.1248931573196699</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="69">
-        <v>35</v>
+      <c r="A30" t="s" s="79">
+        <v>20</v>
+      </c>
+      <c r="B30" t="n" s="84">
+        <v>65.0</v>
+      </c>
+      <c r="C30" t="n" s="85">
+        <v>0.6936448823676874</v>
+      </c>
+      <c r="D30" t="n" s="86">
+        <v>0.685062454116559</v>
+      </c>
+      <c r="E30" t="n" s="87">
+        <v>0.6749577850861197</v>
+      </c>
+      <c r="F30" t="n" s="88">
+        <v>0.6219638416912008</v>
+      </c>
+      <c r="G30" t="n" s="89">
+        <v>1.9538461538461538</v>
+      </c>
+      <c r="H30" t="n" s="90">
+        <v>1.1100502414132156</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31"/>
-      <c r="B31" t="s" s="83">
-        <v>36</v>
-      </c>
-      <c r="C31" t="s" s="83">
-        <v>37</v>
-      </c>
-      <c r="D31" t="s" s="83">
-        <v>38</v>
-      </c>
-      <c r="E31" t="s" s="83">
-        <v>39</v>
-      </c>
-      <c r="F31" t="s" s="83">
-        <v>40</v>
-      </c>
-      <c r="G31" t="s" s="83">
-        <v>9</v>
-      </c>
-      <c r="H31" t="s" s="83">
-        <v>10</v>
+      <c r="A31" t="s" s="79">
+        <v>21</v>
+      </c>
+      <c r="B31" t="n" s="84">
+        <v>65.0</v>
+      </c>
+      <c r="C31" t="n" s="85">
+        <v>0.6893712741490882</v>
+      </c>
+      <c r="D31" t="n" s="86">
+        <v>0.6812312836021664</v>
+      </c>
+      <c r="E31" t="n" s="87">
+        <v>0.6617518655203155</v>
+      </c>
+      <c r="F31" t="n" s="88">
+        <v>0.6174191811772267</v>
+      </c>
+      <c r="G31" t="n" s="89">
+        <v>1.9692307692307693</v>
+      </c>
+      <c r="H31" t="n" s="90">
+        <v>1.1035345311944078</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="79">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B32" t="n" s="84">
         <v>65.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.8374014597813096</v>
+        <v>0.4812117965670266</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.8329953477463947</v>
+        <v>0.49143209204884086</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.8388856114922502</v>
+        <v>0.43316407791680817</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.8035423596203946</v>
+        <v>0.386103773891956</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>1.9846153846153847</v>
+        <v>3.5846153846153848</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>1.1248931573196699</v>
+        <v>1.0442148320075784</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="79">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n" s="84">
         <v>65.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.6848273001908076</v>
+        <v>0.5866854086280218</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.6786157155431465</v>
+        <v>0.589182188753943</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.6760789066344942</v>
+        <v>0.5429385841940246</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.627058802209996</v>
+        <v>0.5108245554134329</v>
       </c>
       <c r="G33" t="n" s="89">
-        <v>1.9538461538461538</v>
+        <v>2.0923076923076924</v>
       </c>
       <c r="H33" t="n" s="90">
-        <v>1.1100502414132156</v>
+        <v>0.9637666490630156</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="79">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B34" t="n" s="84">
         <v>65.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.6211442318225529</v>
+        <v>0.6931835620244041</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.6268266966448971</v>
+        <v>0.7081361602002392</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.5942877092894089</v>
+        <v>0.6923639138074076</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.564666480627451</v>
+        <v>0.6321099453155805</v>
       </c>
       <c r="G34" t="n" s="89">
-        <v>1.9846153846153847</v>
+        <v>2.6307692307692307</v>
       </c>
       <c r="H34" t="n" s="90">
-        <v>0.9600180286768657</v>
+        <v>0.9612691930663656</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="79">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B35" t="n" s="84">
         <v>65.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.6672423802588913</v>
+        <v>0.7229765473544221</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.6545127689463169</v>
+        <v>0.7324698305690123</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.6411620428038697</v>
+        <v>0.7180875684661537</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.6074519767793236</v>
+        <v>0.6669542672136026</v>
       </c>
       <c r="G35" t="n" s="89">
-        <v>1.9692307692307693</v>
+        <v>2.2</v>
       </c>
       <c r="H35" t="n" s="90">
-        <v>1.1035345311944078</v>
+        <v>0.95524865872714</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="79">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B36" t="n" s="84">
         <v>65.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.7000047279025983</v>
+        <v>0.6590458415446913</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.7030101996325635</v>
+        <v>0.655151075665664</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.6894841570081454</v>
+        <v>0.6197257362182882</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.6528392739155939</v>
+        <v>0.5807257963533017</v>
       </c>
       <c r="G36" t="n" s="89">
-        <v>2.2</v>
+        <v>2.523076923076923</v>
       </c>
       <c r="H36" t="n" s="90">
-        <v>0.95524865872714</v>
+        <v>1.1195380228537952</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="79">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B37" t="n" s="84">
         <v>65.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.5687567701419671</v>
+        <v>0.7960796238614484</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.5694988811511253</v>
+        <v>0.7822260155117232</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.5372264758743237</v>
+        <v>0.7723601185057463</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.5067419666032502</v>
+        <v>0.7335705824526072</v>
       </c>
       <c r="G37" t="n" s="89">
-        <v>2.0923076923076924</v>
+        <v>1.9846153846153847</v>
       </c>
       <c r="H37" t="n" s="90">
-        <v>0.9637666490630156</v>
+        <v>1.304946211682541</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="79">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B38" t="n" s="84">
         <v>65.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.6781875256278184</v>
+        <v>0.586830801111862</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.6779700567424372</v>
+        <v>0.5759832235543461</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.660519783819242</v>
+        <v>0.5284113549104525</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.61894633360076</v>
+        <v>0.4895281811759887</v>
       </c>
       <c r="G38" t="n" s="89">
-        <v>2.523076923076923</v>
+        <v>3.0923076923076924</v>
       </c>
       <c r="H38" t="n" s="90">
-        <v>1.1195380228537952</v>
+        <v>1.2083443854490135</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="79">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B39" t="n" s="84">
         <v>65.0</v>
       </c>
       <c r="C39" t="n" s="85">
-        <v>0.787553682737658</v>
+        <v>0.6693933954847886</v>
       </c>
       <c r="D39" t="n" s="86">
-        <v>0.7735615503753315</v>
+        <v>0.67819532399597</v>
       </c>
       <c r="E39" t="n" s="87">
-        <v>0.7710060279471131</v>
+        <v>0.6437059852789265</v>
       </c>
       <c r="F39" t="n" s="88">
-        <v>0.7370570262580985</v>
+        <v>0.608046938260056</v>
       </c>
       <c r="G39" t="n" s="89">
-        <v>1.9846153846153847</v>
+        <v>2.3076923076923075</v>
       </c>
       <c r="H39" t="n" s="90">
-        <v>1.304946211682541</v>
+        <v>0.9172492321316785</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="79">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B40" t="n" s="84">
         <v>65.0</v>
       </c>
       <c r="C40" t="n" s="85">
-        <v>0.6548800055435208</v>
+        <v>0.6530102716571747</v>
       </c>
       <c r="D40" t="n" s="86">
-        <v>0.6612954263369568</v>
+        <v>0.6644703272031582</v>
       </c>
       <c r="E40" t="n" s="87">
-        <v>0.646135166013407</v>
+        <v>0.63209980989572</v>
       </c>
       <c r="F40" t="n" s="88">
-        <v>0.6020363154626612</v>
+        <v>0.5923377458410994</v>
       </c>
       <c r="G40" t="n" s="89">
-        <v>2.6307692307692307</v>
+        <v>3.0923076923076924</v>
       </c>
       <c r="H40" t="n" s="90">
-        <v>0.9612691930663656</v>
+        <v>0.8789744898722339</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s" s="79">
-        <v>27</v>
-      </c>
-      <c r="B41" t="n" s="84">
-        <v>65.0</v>
-      </c>
-      <c r="C41" t="n" s="85">
-        <v>0.4635383357169693</v>
-      </c>
-      <c r="D41" t="n" s="86">
-        <v>0.4646359716401209</v>
-      </c>
-      <c r="E41" t="n" s="87">
-        <v>0.4328505328988701</v>
-      </c>
-      <c r="F41" t="n" s="88">
-        <v>0.3863296416448621</v>
-      </c>
-      <c r="G41" t="n" s="89">
-        <v>3.5846153846153848</v>
-      </c>
-      <c r="H41" t="n" s="90">
-        <v>1.0442148320075784</v>
+      <c r="A41" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="79">
-        <v>28</v>
-      </c>
-      <c r="B42" t="n" s="84">
-        <v>65.0</v>
-      </c>
-      <c r="C42" t="n" s="85">
-        <v>0.6081169171000412</v>
-      </c>
-      <c r="D42" t="n" s="86">
-        <v>0.6034680776456721</v>
-      </c>
-      <c r="E42" t="n" s="87">
-        <v>0.5727575601636405</v>
-      </c>
-      <c r="F42" t="n" s="88">
-        <v>0.5338475559535547</v>
-      </c>
-      <c r="G42" t="n" s="89">
-        <v>3.0923076923076924</v>
-      </c>
-      <c r="H42" t="n" s="90">
-        <v>1.2083443854490135</v>
+      <c r="A42" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s" s="79">
-        <v>29</v>
-      </c>
-      <c r="B43" t="n" s="84">
-        <v>65.0</v>
-      </c>
-      <c r="C43" t="n" s="85">
-        <v>0.6587440424767596</v>
-      </c>
-      <c r="D43" t="n" s="86">
-        <v>0.6660283764824492</v>
-      </c>
-      <c r="E43" t="n" s="87">
-        <v>0.6436766169291391</v>
-      </c>
-      <c r="F43" t="n" s="88">
-        <v>0.6119614316727306</v>
-      </c>
-      <c r="G43" t="n" s="89">
-        <v>2.5692307692307694</v>
-      </c>
-      <c r="H43" t="n" s="90">
-        <v>0.8654700812497573</v>
+      <c r="A43" t="s" s="94">
+        <v>37</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="79">
-        <v>30</v>
-      </c>
-      <c r="B44" t="n" s="84">
-        <v>65.0</v>
-      </c>
-      <c r="C44" t="n" s="85">
-        <v>0.5415663612722916</v>
-      </c>
-      <c r="D44" t="n" s="86">
-        <v>0.553811383681137</v>
-      </c>
-      <c r="E44" t="n" s="87">
-        <v>0.5224063219996059</v>
-      </c>
-      <c r="F44" t="n" s="88">
-        <v>0.4928067595917639</v>
-      </c>
-      <c r="G44" t="n" s="89">
-        <v>2.723076923076923</v>
-      </c>
-      <c r="H44" t="n" s="90">
-        <v>0.7396724846953445</v>
+      <c r="A44"/>
+      <c r="B44" t="s" s="108">
+        <v>38</v>
+      </c>
+      <c r="C44" t="s" s="108">
+        <v>39</v>
+      </c>
+      <c r="D44" t="s" s="108">
+        <v>40</v>
+      </c>
+      <c r="E44" t="s" s="108">
+        <v>41</v>
+      </c>
+      <c r="F44" t="s" s="108">
+        <v>42</v>
+      </c>
+      <c r="G44" t="s" s="108">
+        <v>43</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="79">
-        <v>31</v>
-      </c>
-      <c r="B45" t="n" s="84">
-        <v>65.0</v>
-      </c>
-      <c r="C45" t="n" s="85">
-        <v>0.5185655983464593</v>
-      </c>
-      <c r="D45" t="n" s="86">
-        <v>0.5296412109797692</v>
-      </c>
-      <c r="E45" t="n" s="87">
-        <v>0.4916851892209861</v>
-      </c>
-      <c r="F45" t="n" s="88">
-        <v>0.4542248738856662</v>
-      </c>
-      <c r="G45" t="n" s="89">
-        <v>3.8153846153846156</v>
-      </c>
-      <c r="H45" t="n" s="90">
-        <v>0.9336137399292147</v>
+      <c r="A45" t="s" s="104">
+        <v>18</v>
+      </c>
+      <c r="B45" t="n" s="109">
+        <v>0.2923076923076923</v>
+      </c>
+      <c r="C45" t="n" s="110">
+        <v>0.5538461538461539</v>
+      </c>
+      <c r="D45" t="n" s="111">
+        <v>0.07692307692307693</v>
+      </c>
+      <c r="E45" t="n" s="112">
+        <v>0.03076923076923077</v>
+      </c>
+      <c r="F45" t="n" s="113">
+        <v>0.046153846153846156</v>
+      </c>
+      <c r="G45" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="79">
-        <v>32</v>
-      </c>
-      <c r="B46" t="n" s="84">
-        <v>65.0</v>
-      </c>
-      <c r="C46" t="n" s="85">
-        <v>0.731396145241495</v>
-      </c>
-      <c r="D46" t="n" s="86">
-        <v>0.7211606025469407</v>
-      </c>
-      <c r="E46" t="n" s="87">
-        <v>0.7155831543464223</v>
-      </c>
-      <c r="F46" t="n" s="88">
-        <v>0.6806942435228341</v>
-      </c>
-      <c r="G46" t="n" s="89">
-        <v>2.753846153846154</v>
-      </c>
-      <c r="H46" t="n" s="90">
-        <v>1.104405513596133</v>
+      <c r="A46" t="s" s="104">
+        <v>19</v>
+      </c>
+      <c r="B46" t="n" s="109">
+        <v>0.47692307692307695</v>
+      </c>
+      <c r="C46" t="n" s="110">
+        <v>0.18461538461538463</v>
+      </c>
+      <c r="D46" t="n" s="111">
+        <v>0.24615384615384617</v>
+      </c>
+      <c r="E46" t="n" s="112">
+        <v>0.06153846153846154</v>
+      </c>
+      <c r="F46" t="n" s="113">
+        <v>0.03076923076923077</v>
+      </c>
+      <c r="G46" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s" s="79">
-        <v>33</v>
-      </c>
-      <c r="B47" t="n" s="84">
-        <v>65.0</v>
-      </c>
-      <c r="C47" t="n" s="85">
-        <v>0.6267693009615569</v>
-      </c>
-      <c r="D47" t="n" s="86">
-        <v>0.6346041037912341</v>
-      </c>
-      <c r="E47" t="n" s="87">
-        <v>0.6120063001799294</v>
-      </c>
-      <c r="F47" t="n" s="88">
-        <v>0.5759539296564143</v>
-      </c>
-      <c r="G47" t="n" s="89">
-        <v>3.0923076923076924</v>
-      </c>
-      <c r="H47" t="n" s="90">
-        <v>0.8789744898722339</v>
+      <c r="A47" t="s" s="104">
+        <v>20</v>
+      </c>
+      <c r="B47" t="n" s="109">
+        <v>0.49230769230769234</v>
+      </c>
+      <c r="C47" t="n" s="110">
+        <v>0.16923076923076924</v>
+      </c>
+      <c r="D47" t="n" s="111">
+        <v>0.26153846153846155</v>
+      </c>
+      <c r="E47" t="n" s="112">
+        <v>0.046153846153846156</v>
+      </c>
+      <c r="F47" t="n" s="113">
+        <v>0.03076923076923077</v>
+      </c>
+      <c r="G47" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="79">
-        <v>34</v>
-      </c>
-      <c r="B48" t="n" s="84">
-        <v>65.0</v>
-      </c>
-      <c r="C48" t="n" s="85">
-        <v>0.653886698717991</v>
-      </c>
-      <c r="D48" t="n" s="86">
-        <v>0.6587030316396018</v>
-      </c>
-      <c r="E48" t="n" s="87">
-        <v>0.6323323615743649</v>
-      </c>
-      <c r="F48" t="n" s="88">
-        <v>0.6035496664669467</v>
-      </c>
-      <c r="G48" t="n" s="89">
-        <v>2.3076923076923075</v>
-      </c>
-      <c r="H48" t="n" s="90">
-        <v>0.9172492321316785</v>
+      <c r="A48" t="s" s="104">
+        <v>21</v>
+      </c>
+      <c r="B48" t="n" s="109">
+        <v>0.4153846153846154</v>
+      </c>
+      <c r="C48" t="n" s="110">
+        <v>0.36923076923076925</v>
+      </c>
+      <c r="D48" t="n" s="111">
+        <v>0.07692307692307693</v>
+      </c>
+      <c r="E48" t="n" s="112">
+        <v>0.1076923076923077</v>
+      </c>
+      <c r="F48" t="n" s="113">
+        <v>0.03076923076923077</v>
+      </c>
+      <c r="G48" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s">
-        <v>1</v>
+      <c r="A49" t="s" s="104">
+        <v>22</v>
+      </c>
+      <c r="B49" t="n" s="109">
+        <v>0.06153846153846154</v>
+      </c>
+      <c r="C49" t="n" s="110">
+        <v>0.09230769230769231</v>
+      </c>
+      <c r="D49" t="n" s="111">
+        <v>0.18461538461538463</v>
+      </c>
+      <c r="E49" t="n" s="112">
+        <v>0.5230769230769231</v>
+      </c>
+      <c r="F49" t="n" s="113">
+        <v>0.13846153846153847</v>
+      </c>
+      <c r="G49" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s">
-        <v>1</v>
+      <c r="A50" t="s" s="104">
+        <v>23</v>
+      </c>
+      <c r="B50" t="n" s="109">
+        <v>0.2923076923076923</v>
+      </c>
+      <c r="C50" t="n" s="110">
+        <v>0.4307692307692308</v>
+      </c>
+      <c r="D50" t="n" s="111">
+        <v>0.18461538461538463</v>
+      </c>
+      <c r="E50" t="n" s="112">
+        <v>0.07692307692307693</v>
+      </c>
+      <c r="F50" t="n" s="113">
+        <v>0.015384615384615385</v>
+      </c>
+      <c r="G50" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="s" s="94">
-        <v>41</v>
+      <c r="A51" t="s" s="104">
+        <v>24</v>
+      </c>
+      <c r="B51" t="n" s="109">
+        <v>0.09230769230769231</v>
+      </c>
+      <c r="C51" t="n" s="110">
+        <v>0.36923076923076925</v>
+      </c>
+      <c r="D51" t="n" s="111">
+        <v>0.4153846153846154</v>
+      </c>
+      <c r="E51" t="n" s="112">
+        <v>0.06153846153846154</v>
+      </c>
+      <c r="F51" t="n" s="113">
+        <v>0.06153846153846154</v>
+      </c>
+      <c r="G51" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52"/>
-      <c r="B52" t="s" s="108">
-        <v>42</v>
-      </c>
-      <c r="C52" t="s" s="108">
-        <v>43</v>
-      </c>
-      <c r="D52" t="s" s="108">
-        <v>44</v>
-      </c>
-      <c r="E52" t="s" s="108">
-        <v>45</v>
-      </c>
-      <c r="F52" t="s" s="108">
-        <v>46</v>
-      </c>
-      <c r="G52" t="s" s="108">
-        <v>47</v>
+      <c r="A52" t="s" s="104">
+        <v>25</v>
+      </c>
+      <c r="B52" t="n" s="109">
+        <v>0.2</v>
+      </c>
+      <c r="C52" t="n" s="110">
+        <v>0.5230769230769231</v>
+      </c>
+      <c r="D52" t="n" s="111">
+        <v>0.2</v>
+      </c>
+      <c r="E52" t="n" s="112">
+        <v>0.03076923076923077</v>
+      </c>
+      <c r="F52" t="n" s="113">
+        <v>0.046153846153846156</v>
+      </c>
+      <c r="G52" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="104">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B53" t="n" s="109">
-        <v>0.47692307692307695</v>
+        <v>0.18461538461538463</v>
       </c>
       <c r="C53" t="n" s="110">
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="D53" t="n" s="111">
         <v>0.18461538461538463</v>
       </c>
-      <c r="D53" t="n" s="111">
-        <v>0.24615384615384617</v>
-      </c>
       <c r="E53" t="n" s="112">
-        <v>0.06153846153846154</v>
+        <v>0.2153846153846154</v>
       </c>
       <c r="F53" t="n" s="113">
         <v>0.03076923076923077</v>
@@ -3579,22 +3531,22 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="104">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B54" t="n" s="109">
-        <v>0.49230769230769234</v>
+        <v>0.5076923076923077</v>
       </c>
       <c r="C54" t="n" s="110">
-        <v>0.16923076923076924</v>
+        <v>0.24615384615384617</v>
       </c>
       <c r="D54" t="n" s="111">
-        <v>0.26153846153846155</v>
+        <v>0.09230769230769231</v>
       </c>
       <c r="E54" t="n" s="112">
-        <v>0.046153846153846156</v>
+        <v>0.06153846153846154</v>
       </c>
       <c r="F54" t="n" s="113">
-        <v>0.03076923076923077</v>
+        <v>0.09230769230769231</v>
       </c>
       <c r="G54" t="n" s="114">
         <v>0.0</v>
@@ -3602,22 +3554,22 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="104">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B55" t="n" s="109">
+        <v>0.13846153846153847</v>
+      </c>
+      <c r="C55" t="n" s="110">
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="D55" t="n" s="111">
         <v>0.2923076923076923</v>
       </c>
-      <c r="C55" t="n" s="110">
-        <v>0.5538461538461539</v>
-      </c>
-      <c r="D55" t="n" s="111">
-        <v>0.07692307692307693</v>
-      </c>
       <c r="E55" t="n" s="112">
-        <v>0.03076923076923077</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="F55" t="n" s="113">
-        <v>0.046153846153846156</v>
+        <v>0.1076923076923077</v>
       </c>
       <c r="G55" t="n" s="114">
         <v>0.0</v>
@@ -3625,22 +3577,22 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="104">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B56" t="n" s="109">
-        <v>0.4153846153846154</v>
+        <v>0.2</v>
       </c>
       <c r="C56" t="n" s="110">
-        <v>0.36923076923076925</v>
+        <v>0.38461538461538464</v>
       </c>
       <c r="D56" t="n" s="111">
-        <v>0.07692307692307693</v>
+        <v>0.3384615384615385</v>
       </c>
       <c r="E56" t="n" s="112">
-        <v>0.1076923076923077</v>
+        <v>0.06153846153846154</v>
       </c>
       <c r="F56" t="n" s="113">
-        <v>0.03076923076923077</v>
+        <v>0.015384615384615385</v>
       </c>
       <c r="G56" t="n" s="114">
         <v>0.0</v>
@@ -3648,300 +3600,24 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="104">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B57" t="n" s="109">
-        <v>0.2</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="C57" t="n" s="110">
-        <v>0.5230769230769231</v>
+        <v>0.18461538461538463</v>
       </c>
       <c r="D57" t="n" s="111">
-        <v>0.2</v>
+        <v>0.5076923076923077</v>
       </c>
       <c r="E57" t="n" s="112">
-        <v>0.03076923076923077</v>
+        <v>0.2153846153846154</v>
       </c>
       <c r="F57" t="n" s="113">
-        <v>0.046153846153846156</v>
+        <v>0.06153846153846154</v>
       </c>
       <c r="G57" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="104">
-        <v>23</v>
-      </c>
-      <c r="B58" t="n" s="109">
-        <v>0.2923076923076923</v>
-      </c>
-      <c r="C58" t="n" s="110">
-        <v>0.4307692307692308</v>
-      </c>
-      <c r="D58" t="n" s="111">
-        <v>0.18461538461538463</v>
-      </c>
-      <c r="E58" t="n" s="112">
-        <v>0.07692307692307693</v>
-      </c>
-      <c r="F58" t="n" s="113">
-        <v>0.015384615384615385</v>
-      </c>
-      <c r="G58" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="104">
-        <v>24</v>
-      </c>
-      <c r="B59" t="n" s="109">
-        <v>0.18461538461538463</v>
-      </c>
-      <c r="C59" t="n" s="110">
-        <v>0.38461538461538464</v>
-      </c>
-      <c r="D59" t="n" s="111">
-        <v>0.18461538461538463</v>
-      </c>
-      <c r="E59" t="n" s="112">
-        <v>0.2153846153846154</v>
-      </c>
-      <c r="F59" t="n" s="113">
-        <v>0.03076923076923077</v>
-      </c>
-      <c r="G59" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="104">
-        <v>25</v>
-      </c>
-      <c r="B60" t="n" s="109">
-        <v>0.5076923076923077</v>
-      </c>
-      <c r="C60" t="n" s="110">
-        <v>0.24615384615384617</v>
-      </c>
-      <c r="D60" t="n" s="111">
-        <v>0.09230769230769231</v>
-      </c>
-      <c r="E60" t="n" s="112">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="F60" t="n" s="113">
-        <v>0.09230769230769231</v>
-      </c>
-      <c r="G60" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="104">
-        <v>26</v>
-      </c>
-      <c r="B61" t="n" s="109">
-        <v>0.09230769230769231</v>
-      </c>
-      <c r="C61" t="n" s="110">
-        <v>0.36923076923076925</v>
-      </c>
-      <c r="D61" t="n" s="111">
-        <v>0.4153846153846154</v>
-      </c>
-      <c r="E61" t="n" s="112">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="F61" t="n" s="113">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="G61" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="104">
-        <v>27</v>
-      </c>
-      <c r="B62" t="n" s="109">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="C62" t="n" s="110">
-        <v>0.09230769230769231</v>
-      </c>
-      <c r="D62" t="n" s="111">
-        <v>0.18461538461538463</v>
-      </c>
-      <c r="E62" t="n" s="112">
-        <v>0.5230769230769231</v>
-      </c>
-      <c r="F62" t="n" s="113">
-        <v>0.13846153846153847</v>
-      </c>
-      <c r="G62" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="104">
-        <v>28</v>
-      </c>
-      <c r="B63" t="n" s="109">
-        <v>0.13846153846153847</v>
-      </c>
-      <c r="C63" t="n" s="110">
-        <v>0.15384615384615385</v>
-      </c>
-      <c r="D63" t="n" s="111">
-        <v>0.2923076923076923</v>
-      </c>
-      <c r="E63" t="n" s="112">
-        <v>0.3076923076923077</v>
-      </c>
-      <c r="F63" t="n" s="113">
-        <v>0.1076923076923077</v>
-      </c>
-      <c r="G63" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="104">
-        <v>29</v>
-      </c>
-      <c r="B64" t="n" s="109">
-        <v>0.03076923076923077</v>
-      </c>
-      <c r="C64" t="n" s="110">
-        <v>0.5384615384615384</v>
-      </c>
-      <c r="D64" t="n" s="111">
-        <v>0.3076923076923077</v>
-      </c>
-      <c r="E64" t="n" s="112">
-        <v>0.07692307692307693</v>
-      </c>
-      <c r="F64" t="n" s="113">
-        <v>0.046153846153846156</v>
-      </c>
-      <c r="G64" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s" s="104">
-        <v>30</v>
-      </c>
-      <c r="B65" t="n" s="109">
-        <v>0.015384615384615385</v>
-      </c>
-      <c r="C65" t="n" s="110">
-        <v>0.38461538461538464</v>
-      </c>
-      <c r="D65" t="n" s="111">
-        <v>0.47692307692307695</v>
-      </c>
-      <c r="E65" t="n" s="112">
-        <v>0.1076923076923077</v>
-      </c>
-      <c r="F65" t="n" s="113">
-        <v>0.015384615384615385</v>
-      </c>
-      <c r="G65" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="104">
-        <v>31</v>
-      </c>
-      <c r="B66" t="n" s="109">
-        <v>0.0</v>
-      </c>
-      <c r="C66" t="n" s="110">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D66" t="n" s="111">
-        <v>0.35384615384615387</v>
-      </c>
-      <c r="E66" t="n" s="112">
-        <v>0.2923076923076923</v>
-      </c>
-      <c r="F66" t="n" s="113">
-        <v>0.2923076923076923</v>
-      </c>
-      <c r="G66" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="104">
-        <v>32</v>
-      </c>
-      <c r="B67" t="n" s="109">
-        <v>0.09230769230769231</v>
-      </c>
-      <c r="C67" t="n" s="110">
-        <v>0.4</v>
-      </c>
-      <c r="D67" t="n" s="111">
-        <v>0.24615384615384617</v>
-      </c>
-      <c r="E67" t="n" s="112">
-        <v>0.18461538461538463</v>
-      </c>
-      <c r="F67" t="n" s="113">
-        <v>0.07692307692307693</v>
-      </c>
-      <c r="G67" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="104">
-        <v>33</v>
-      </c>
-      <c r="B68" t="n" s="109">
-        <v>0.03076923076923077</v>
-      </c>
-      <c r="C68" t="n" s="110">
-        <v>0.18461538461538463</v>
-      </c>
-      <c r="D68" t="n" s="111">
-        <v>0.5076923076923077</v>
-      </c>
-      <c r="E68" t="n" s="112">
-        <v>0.2153846153846154</v>
-      </c>
-      <c r="F68" t="n" s="113">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="G68" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="104">
-        <v>34</v>
-      </c>
-      <c r="B69" t="n" s="109">
-        <v>0.2</v>
-      </c>
-      <c r="C69" t="n" s="110">
-        <v>0.38461538461538464</v>
-      </c>
-      <c r="D69" t="n" s="111">
-        <v>0.3384615384615385</v>
-      </c>
-      <c r="E69" t="n" s="112">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="F69" t="n" s="113">
-        <v>0.015384615384615385</v>
-      </c>
-      <c r="G69" t="n" s="114">
         <v>0.0</v>
       </c>
     </row>
@@ -3972,7 +3648,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="116">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2">
@@ -4027,7 +3703,7 @@
         <v>0.82561370709634</v>
       </c>
       <c r="C6" t="n" s="147">
-        <v>0.8013868215903357</v>
+        <v>0.8013868215903355</v>
       </c>
       <c r="D6" t="n" s="148">
         <v>0.5420404388772898</v>
@@ -4095,28 +3771,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="172">
-        <v>0.7566775014132276</v>
+        <v>0.8313722097248659</v>
       </c>
       <c r="C11" t="n" s="173">
-        <v>0.7534337644071951</v>
+        <v>0.8314365281652053</v>
       </c>
       <c r="D11" t="n" s="174">
-        <v>0.6926818191787147</v>
+        <v>0.7810535666551672</v>
       </c>
       <c r="E11" t="n" s="175">
-        <v>0.5045994102646079</v>
+        <v>0.6218082225487315</v>
       </c>
       <c r="F11" t="n" s="176">
-        <v>3.0557053466617536</v>
+        <v>4.932483408861425</v>
       </c>
       <c r="G11" t="n" s="177">
-        <v>0.05145686745243909</v>
+        <v>0.03663125572792268</v>
       </c>
       <c r="H11" t="n" s="178">
-        <v>0.018782602750733235</v>
+        <v>0.008610477438075395</v>
       </c>
       <c r="I11" t="n" s="179">
-        <v>0.43918813249067556</v>
+        <v>0.6620993851837808</v>
       </c>
     </row>
     <row r="12">
@@ -4124,28 +3800,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="172">
-        <v>0.7394214935204411</v>
+        <v>0.7566775014132276</v>
       </c>
       <c r="C12" t="n" s="173">
-        <v>0.740713993660979</v>
+        <v>0.7534337644071951</v>
       </c>
       <c r="D12" t="n" s="174">
-        <v>0.6616947847283163</v>
+        <v>0.6926818191787147</v>
       </c>
       <c r="E12" t="n" s="175">
-        <v>0.4877700810215185</v>
+        <v>0.5045994102646079</v>
       </c>
       <c r="F12" t="n" s="176">
-        <v>2.856744967148294</v>
+        <v>3.0557053466617536</v>
       </c>
       <c r="G12" t="n" s="177">
-        <v>0.05537693586403685</v>
+        <v>0.05145686745243909</v>
       </c>
       <c r="H12" t="n" s="178">
-        <v>0.004342445205068099</v>
+        <v>0.018782602750733235</v>
       </c>
       <c r="I12" t="n" s="179">
-        <v>0.5156804099376866</v>
+        <v>0.43918813249067556</v>
       </c>
     </row>
     <row r="13">
@@ -4153,28 +3829,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="172">
-        <v>0.8313722097248659</v>
+        <v>0.7394214935204411</v>
       </c>
       <c r="C13" t="n" s="173">
-        <v>0.8314365281652053</v>
+        <v>0.740713993660979</v>
       </c>
       <c r="D13" t="n" s="174">
-        <v>0.7810535666551672</v>
+        <v>0.6616947847283164</v>
       </c>
       <c r="E13" t="n" s="175">
-        <v>0.6218082225487315</v>
+        <v>0.4877700810215185</v>
       </c>
       <c r="F13" t="n" s="176">
-        <v>4.932483408861425</v>
+        <v>2.856744967148294</v>
       </c>
       <c r="G13" t="n" s="177">
-        <v>0.03663125572792268</v>
+        <v>0.05537693586403685</v>
       </c>
       <c r="H13" t="n" s="178">
-        <v>0.008610477438075395</v>
+        <v>0.004342445205068099</v>
       </c>
       <c r="I13" t="n" s="179">
-        <v>0.6620993851837808</v>
+        <v>0.5156804099376866</v>
       </c>
     </row>
     <row r="14">
@@ -4218,25 +3894,25 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="183">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s" s="197">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s" s="197">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s" s="197">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s" s="197">
+        <v>35</v>
+      </c>
+      <c r="F18" t="s" s="197">
         <v>36</v>
-      </c>
-      <c r="C18" t="s" s="197">
-        <v>37</v>
-      </c>
-      <c r="D18" t="s" s="197">
-        <v>38</v>
-      </c>
-      <c r="E18" t="s" s="197">
-        <v>39</v>
-      </c>
-      <c r="F18" t="s" s="197">
-        <v>40</v>
       </c>
       <c r="G18" t="s" s="197">
         <v>9</v>
@@ -4253,22 +3929,22 @@
         <v>65.0</v>
       </c>
       <c r="C19" t="n" s="199">
-        <v>0.8498106821753751</v>
+        <v>0.7164333894263774</v>
       </c>
       <c r="D19" t="n" s="200">
-        <v>0.8449218473503398</v>
+        <v>0.7364307425703565</v>
       </c>
       <c r="E19" t="n" s="201">
-        <v>0.7857572647431543</v>
+        <v>0.5856015531505443</v>
       </c>
       <c r="F19" t="n" s="202">
-        <v>0.7077528484494001</v>
+        <v>0.5350406062861535</v>
       </c>
       <c r="G19" t="n" s="203">
         <v>1.9846153846153847</v>
       </c>
       <c r="H19" t="n" s="204">
-        <v>1.1248931573196699</v>
+        <v>0.9600180286768657</v>
       </c>
     </row>
     <row r="20">
@@ -4279,22 +3955,22 @@
         <v>65.0</v>
       </c>
       <c r="C20" t="n" s="199">
-        <v>0.8683590568257057</v>
+        <v>0.8498106821753751</v>
       </c>
       <c r="D20" t="n" s="200">
-        <v>0.8604994518555615</v>
+        <v>0.8449218473503398</v>
       </c>
       <c r="E20" t="n" s="201">
-        <v>0.8240414696401657</v>
+        <v>0.785757264743154</v>
       </c>
       <c r="F20" t="n" s="202">
-        <v>0.7431772848012891</v>
+        <v>0.7077528484494001</v>
       </c>
       <c r="G20" t="n" s="203">
-        <v>1.9538461538461538</v>
+        <v>1.9846153846153847</v>
       </c>
       <c r="H20" t="n" s="204">
-        <v>1.1100502414132156</v>
+        <v>1.1248931573196699</v>
       </c>
     </row>
     <row r="21">
@@ -4305,22 +3981,22 @@
         <v>65.0</v>
       </c>
       <c r="C21" t="n" s="199">
-        <v>0.7164333894263774</v>
+        <v>0.8683590568257057</v>
       </c>
       <c r="D21" t="n" s="200">
-        <v>0.7364307425703565</v>
+        <v>0.8604994518555615</v>
       </c>
       <c r="E21" t="n" s="201">
-        <v>0.5856015531505444</v>
+        <v>0.8240414696401658</v>
       </c>
       <c r="F21" t="n" s="202">
-        <v>0.5350406062861535</v>
+        <v>0.7431772848012891</v>
       </c>
       <c r="G21" t="n" s="203">
-        <v>1.9846153846153847</v>
+        <v>1.9538461538461538</v>
       </c>
       <c r="H21" t="n" s="204">
-        <v>0.9600180286768657</v>
+        <v>1.1100502414132156</v>
       </c>
     </row>
     <row r="22">
@@ -4337,7 +4013,7 @@
         <v>0.7992103251842233</v>
       </c>
       <c r="E22" t="n" s="201">
-        <v>0.7060055889654865</v>
+        <v>0.7060055889654863</v>
       </c>
       <c r="F22" t="n" s="202">
         <v>0.6364244891025191</v>
@@ -4361,28 +4037,28 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="208">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s" s="222">
+        <v>38</v>
+      </c>
+      <c r="C26" t="s" s="222">
+        <v>39</v>
+      </c>
+      <c r="D26" t="s" s="222">
+        <v>40</v>
+      </c>
+      <c r="E26" t="s" s="222">
+        <v>41</v>
+      </c>
+      <c r="F26" t="s" s="222">
         <v>42</v>
       </c>
-      <c r="C26" t="s" s="222">
+      <c r="G26" t="s" s="222">
         <v>43</v>
-      </c>
-      <c r="D26" t="s" s="222">
-        <v>44</v>
-      </c>
-      <c r="E26" t="s" s="222">
-        <v>45</v>
-      </c>
-      <c r="F26" t="s" s="222">
-        <v>46</v>
-      </c>
-      <c r="G26" t="s" s="222">
-        <v>47</v>
       </c>
     </row>
     <row r="27">
@@ -4390,19 +4066,19 @@
         <v>18</v>
       </c>
       <c r="B27" t="n" s="223">
-        <v>0.47692307692307695</v>
+        <v>0.2923076923076923</v>
       </c>
       <c r="C27" t="n" s="224">
-        <v>0.18461538461538463</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="D27" t="n" s="225">
-        <v>0.24615384615384617</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="E27" t="n" s="226">
-        <v>0.06153846153846154</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="F27" t="n" s="227">
-        <v>0.03076923076923077</v>
+        <v>0.046153846153846156</v>
       </c>
       <c r="G27" t="n" s="228">
         <v>0.0</v>
@@ -4413,16 +4089,16 @@
         <v>19</v>
       </c>
       <c r="B28" t="n" s="223">
-        <v>0.49230769230769234</v>
+        <v>0.47692307692307695</v>
       </c>
       <c r="C28" t="n" s="224">
-        <v>0.16923076923076924</v>
+        <v>0.18461538461538463</v>
       </c>
       <c r="D28" t="n" s="225">
-        <v>0.26153846153846155</v>
+        <v>0.24615384615384617</v>
       </c>
       <c r="E28" t="n" s="226">
-        <v>0.046153846153846156</v>
+        <v>0.06153846153846154</v>
       </c>
       <c r="F28" t="n" s="227">
         <v>0.03076923076923077</v>
@@ -4436,19 +4112,19 @@
         <v>20</v>
       </c>
       <c r="B29" t="n" s="223">
-        <v>0.2923076923076923</v>
+        <v>0.49230769230769234</v>
       </c>
       <c r="C29" t="n" s="224">
-        <v>0.5538461538461539</v>
+        <v>0.16923076923076924</v>
       </c>
       <c r="D29" t="n" s="225">
-        <v>0.07692307692307693</v>
+        <v>0.26153846153846155</v>
       </c>
       <c r="E29" t="n" s="226">
+        <v>0.046153846153846156</v>
+      </c>
+      <c r="F29" t="n" s="227">
         <v>0.03076923076923077</v>
-      </c>
-      <c r="F29" t="n" s="227">
-        <v>0.046153846153846156</v>
       </c>
       <c r="G29" t="n" s="228">
         <v>0.0</v>
@@ -4504,7 +4180,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="230">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -4577,7 +4253,7 @@
         <v>0.7497061390116763</v>
       </c>
       <c r="I6" t="n" s="267">
-        <v>0.40520252806077245</v>
+        <v>0.4052025280607725</v>
       </c>
     </row>
     <row r="7">
@@ -4627,28 +4303,28 @@
         <v>22</v>
       </c>
       <c r="B11" t="n" s="286">
-        <v>0.737991521463382</v>
+        <v>0.8090000889336851</v>
       </c>
       <c r="C11" t="n" s="287">
-        <v>0.7416794745798709</v>
+        <v>0.8148487944592019</v>
       </c>
       <c r="D11" t="n" s="288">
-        <v>0.7178173109170878</v>
+        <v>0.7993733628817498</v>
       </c>
       <c r="E11" t="n" s="289">
-        <v>0.36476958803053916</v>
+        <v>0.4681411794818093</v>
       </c>
       <c r="F11" t="n" s="290">
-        <v>2.871159670233765</v>
+        <v>4.400991028274183</v>
       </c>
       <c r="G11" t="n" s="291">
-        <v>0.0506068856902608</v>
+        <v>0.036907574048573415</v>
       </c>
       <c r="H11" t="n" s="292">
-        <v>0.01314775553233967</v>
+        <v>0.00842221876403575</v>
       </c>
       <c r="I11" t="n" s="293">
-        <v>0.3899397254849758</v>
+        <v>0.46474847249131845</v>
       </c>
     </row>
     <row r="12">
@@ -4662,7 +4338,7 @@
         <v>0.7720243878591857</v>
       </c>
       <c r="D12" t="n" s="288">
-        <v>0.7659770169015623</v>
+        <v>0.7659770169015624</v>
       </c>
       <c r="E12" t="n" s="289">
         <v>0.4037990476131984</v>
@@ -4677,7 +4353,7 @@
         <v>0.02515555439055209</v>
       </c>
       <c r="I12" t="n" s="293">
-        <v>0.4245116320353036</v>
+        <v>0.4245116320353037</v>
       </c>
     </row>
     <row r="13">
@@ -4685,28 +4361,28 @@
         <v>24</v>
       </c>
       <c r="B13" t="n" s="286">
-        <v>0.7678160344309879</v>
+        <v>0.7485669832951194</v>
       </c>
       <c r="C13" t="n" s="287">
-        <v>0.7763239721097037</v>
+        <v>0.7523816199980236</v>
       </c>
       <c r="D13" t="n" s="288">
-        <v>0.762962801760805</v>
+        <v>0.7293850390531446</v>
       </c>
       <c r="E13" t="n" s="289">
-        <v>0.4097336187601523</v>
+        <v>0.37799127314943376</v>
       </c>
       <c r="F13" t="n" s="290">
-        <v>3.4707517807427184</v>
+        <v>3.038472426772268</v>
       </c>
       <c r="G13" t="n" s="291">
-        <v>0.04532234658267556</v>
+        <v>0.04833809970954907</v>
       </c>
       <c r="H13" t="n" s="292">
-        <v>0.016328122407108858</v>
+        <v>0.017654112253299523</v>
       </c>
       <c r="I13" t="n" s="293">
-        <v>0.40456744682211787</v>
+        <v>0.4181839943998934</v>
       </c>
     </row>
     <row r="14">
@@ -4714,28 +4390,28 @@
         <v>25</v>
       </c>
       <c r="B14" t="n" s="286">
-        <v>0.7563271146127546</v>
+        <v>0.737991521463382</v>
       </c>
       <c r="C14" t="n" s="287">
-        <v>0.762103422200537</v>
+        <v>0.7416794745798709</v>
       </c>
       <c r="D14" t="n" s="288">
-        <v>0.7566428273021887</v>
+        <v>0.7178173109170878</v>
       </c>
       <c r="E14" t="n" s="289">
-        <v>0.390504595071058</v>
+        <v>0.36476958803053916</v>
       </c>
       <c r="F14" t="n" s="290">
-        <v>3.2035072940097464</v>
+        <v>2.871159670233765</v>
       </c>
       <c r="G14" t="n" s="291">
-        <v>0.04846740402564653</v>
+        <v>0.0506068856902608</v>
       </c>
       <c r="H14" t="n" s="292">
-        <v>0.02091571609485007</v>
+        <v>0.013147755532339671</v>
       </c>
       <c r="I14" t="n" s="293">
-        <v>0.3893046442463212</v>
+        <v>0.3899397254849758</v>
       </c>
     </row>
     <row r="15">
@@ -4743,28 +4419,28 @@
         <v>26</v>
       </c>
       <c r="B15" t="n" s="286">
-        <v>0.7485669832951194</v>
+        <v>0.7678160344309879</v>
       </c>
       <c r="C15" t="n" s="287">
-        <v>0.7523816199980236</v>
+        <v>0.7763239721097037</v>
       </c>
       <c r="D15" t="n" s="288">
-        <v>0.7293850390531444</v>
+        <v>0.762962801760805</v>
       </c>
       <c r="E15" t="n" s="289">
-        <v>0.37799127314943376</v>
+        <v>0.4097336187601523</v>
       </c>
       <c r="F15" t="n" s="290">
-        <v>3.038472426772268</v>
+        <v>3.4707517807427184</v>
       </c>
       <c r="G15" t="n" s="291">
-        <v>0.04833809970954907</v>
+        <v>0.04532234658267556</v>
       </c>
       <c r="H15" t="n" s="292">
-        <v>0.017654112253299523</v>
+        <v>0.016328122407108858</v>
       </c>
       <c r="I15" t="n" s="293">
-        <v>0.4181839943998934</v>
+        <v>0.40456744682211787</v>
       </c>
     </row>
     <row r="16">
@@ -4772,28 +4448,28 @@
         <v>27</v>
       </c>
       <c r="B16" t="n" s="286">
-        <v>0.8090000889336851</v>
+        <v>0.7563271146127546</v>
       </c>
       <c r="C16" t="n" s="287">
-        <v>0.8148487944592019</v>
+        <v>0.762103422200537</v>
       </c>
       <c r="D16" t="n" s="288">
-        <v>0.7993733628817496</v>
+        <v>0.7566428273021887</v>
       </c>
       <c r="E16" t="n" s="289">
-        <v>0.4681411794818093</v>
+        <v>0.390504595071058</v>
       </c>
       <c r="F16" t="n" s="290">
-        <v>4.400991028274183</v>
+        <v>3.2035072940097464</v>
       </c>
       <c r="G16" t="n" s="291">
-        <v>0.036907574048573415</v>
+        <v>0.04846740402564652</v>
       </c>
       <c r="H16" t="n" s="292">
-        <v>0.00842221876403575</v>
+        <v>0.02091571609485007</v>
       </c>
       <c r="I16" t="n" s="293">
-        <v>0.46474847249131845</v>
+        <v>0.3893046442463212</v>
       </c>
     </row>
     <row r="17">
@@ -4808,25 +4484,25 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="297">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s" s="311">
+        <v>32</v>
+      </c>
+      <c r="C20" t="s" s="311">
+        <v>33</v>
+      </c>
+      <c r="D20" t="s" s="311">
+        <v>34</v>
+      </c>
+      <c r="E20" t="s" s="311">
+        <v>35</v>
+      </c>
+      <c r="F20" t="s" s="311">
         <v>36</v>
-      </c>
-      <c r="C20" t="s" s="311">
-        <v>37</v>
-      </c>
-      <c r="D20" t="s" s="311">
-        <v>38</v>
-      </c>
-      <c r="E20" t="s" s="311">
-        <v>39</v>
-      </c>
-      <c r="F20" t="s" s="311">
-        <v>40</v>
       </c>
       <c r="G20" t="s" s="311">
         <v>9</v>
@@ -4843,22 +4519,22 @@
         <v>65.0</v>
       </c>
       <c r="C21" t="n" s="313">
-        <v>0.7847163695856166</v>
+        <v>0.5436016813629913</v>
       </c>
       <c r="D21" t="n" s="314">
-        <v>0.7972961272675432</v>
+        <v>0.5541509300124681</v>
       </c>
       <c r="E21" t="n" s="315">
-        <v>0.7770345009925841</v>
+        <v>0.40814474876335316</v>
       </c>
       <c r="F21" t="n" s="316">
-        <v>0.6783964657990427</v>
+        <v>0.34789881068833733</v>
       </c>
       <c r="G21" t="n" s="317">
-        <v>2.2</v>
+        <v>3.5846153846153848</v>
       </c>
       <c r="H21" t="n" s="318">
-        <v>0.95524865872714</v>
+        <v>1.0442148320075784</v>
       </c>
     </row>
     <row r="22">
@@ -4875,7 +4551,7 @@
         <v>0.7054930939993728</v>
       </c>
       <c r="E22" t="n" s="315">
-        <v>0.612821999903396</v>
+        <v>0.6128219999033958</v>
       </c>
       <c r="F22" t="n" s="316">
         <v>0.5609308732078386</v>
@@ -4895,22 +4571,22 @@
         <v>65.0</v>
       </c>
       <c r="C23" t="n" s="313">
-        <v>0.7026884521492588</v>
+        <v>0.7493366958666289</v>
       </c>
       <c r="D23" t="n" s="314">
-        <v>0.6915341092155253</v>
+        <v>0.7661967779091309</v>
       </c>
       <c r="E23" t="n" s="315">
-        <v>0.6101261900014907</v>
+        <v>0.7306990465094316</v>
       </c>
       <c r="F23" t="n" s="316">
-        <v>0.5377468509269735</v>
+        <v>0.6289000503696219</v>
       </c>
       <c r="G23" t="n" s="317">
-        <v>2.523076923076923</v>
+        <v>2.6307692307692307</v>
       </c>
       <c r="H23" t="n" s="318">
-        <v>1.1195380228537952</v>
+        <v>0.9612691930663656</v>
       </c>
     </row>
     <row r="24">
@@ -4921,22 +4597,22 @@
         <v>65.0</v>
       </c>
       <c r="C24" t="n" s="313">
-        <v>0.7666564330509494</v>
+        <v>0.7847163695856166</v>
       </c>
       <c r="D24" t="n" s="314">
-        <v>0.7367636030471199</v>
+        <v>0.7972961272675432</v>
       </c>
       <c r="E24" t="n" s="315">
-        <v>0.6628904238386818</v>
+        <v>0.7770345009925842</v>
       </c>
       <c r="F24" t="n" s="316">
-        <v>0.5959997131576547</v>
+        <v>0.6783964657990427</v>
       </c>
       <c r="G24" t="n" s="317">
-        <v>1.9846153846153847</v>
+        <v>2.2</v>
       </c>
       <c r="H24" t="n" s="318">
-        <v>1.304946211682541</v>
+        <v>0.95524865872714</v>
       </c>
     </row>
     <row r="25">
@@ -4947,22 +4623,22 @@
         <v>65.0</v>
       </c>
       <c r="C25" t="n" s="313">
-        <v>0.7493366958666289</v>
+        <v>0.7026884521492588</v>
       </c>
       <c r="D25" t="n" s="314">
-        <v>0.7661967779091309</v>
+        <v>0.6915341092155253</v>
       </c>
       <c r="E25" t="n" s="315">
-        <v>0.7306990465094316</v>
+        <v>0.6101261900014905</v>
       </c>
       <c r="F25" t="n" s="316">
-        <v>0.6289000503696219</v>
+        <v>0.5377468509269735</v>
       </c>
       <c r="G25" t="n" s="317">
-        <v>2.6307692307692307</v>
+        <v>2.523076923076923</v>
       </c>
       <c r="H25" t="n" s="318">
-        <v>0.9612691930663656</v>
+        <v>1.1195380228537952</v>
       </c>
     </row>
     <row r="26">
@@ -4973,22 +4649,22 @@
         <v>65.0</v>
       </c>
       <c r="C26" t="n" s="313">
-        <v>0.5436016813629913</v>
+        <v>0.7666564330509494</v>
       </c>
       <c r="D26" t="n" s="314">
-        <v>0.5541509300124681</v>
+        <v>0.7367636030471199</v>
       </c>
       <c r="E26" t="n" s="315">
-        <v>0.4081447487633533</v>
+        <v>0.6628904238386824</v>
       </c>
       <c r="F26" t="n" s="316">
-        <v>0.34789881068833733</v>
+        <v>0.5959997131576547</v>
       </c>
       <c r="G26" t="n" s="317">
-        <v>3.5846153846153848</v>
+        <v>1.9846153846153847</v>
       </c>
       <c r="H26" t="n" s="318">
-        <v>1.0442148320075784</v>
+        <v>1.304946211682541</v>
       </c>
     </row>
     <row r="27">
@@ -5003,28 +4679,28 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="322">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30">
       <c r="A30"/>
       <c r="B30" t="s" s="336">
+        <v>38</v>
+      </c>
+      <c r="C30" t="s" s="336">
+        <v>39</v>
+      </c>
+      <c r="D30" t="s" s="336">
+        <v>40</v>
+      </c>
+      <c r="E30" t="s" s="336">
+        <v>41</v>
+      </c>
+      <c r="F30" t="s" s="336">
         <v>42</v>
       </c>
-      <c r="C30" t="s" s="336">
+      <c r="G30" t="s" s="336">
         <v>43</v>
-      </c>
-      <c r="D30" t="s" s="336">
-        <v>44</v>
-      </c>
-      <c r="E30" t="s" s="336">
-        <v>45</v>
-      </c>
-      <c r="F30" t="s" s="336">
-        <v>46</v>
-      </c>
-      <c r="G30" t="s" s="336">
-        <v>47</v>
       </c>
     </row>
     <row r="31">
@@ -5032,19 +4708,19 @@
         <v>22</v>
       </c>
       <c r="B31" t="n" s="337">
-        <v>0.2</v>
+        <v>0.06153846153846154</v>
       </c>
       <c r="C31" t="n" s="338">
+        <v>0.09230769230769231</v>
+      </c>
+      <c r="D31" t="n" s="339">
+        <v>0.18461538461538463</v>
+      </c>
+      <c r="E31" t="n" s="340">
         <v>0.5230769230769231</v>
       </c>
-      <c r="D31" t="n" s="339">
-        <v>0.2</v>
-      </c>
-      <c r="E31" t="n" s="340">
-        <v>0.03076923076923077</v>
-      </c>
       <c r="F31" t="n" s="341">
-        <v>0.046153846153846156</v>
+        <v>0.13846153846153847</v>
       </c>
       <c r="G31" t="n" s="342">
         <v>0.0</v>
@@ -5078,19 +4754,19 @@
         <v>24</v>
       </c>
       <c r="B33" t="n" s="337">
-        <v>0.18461538461538463</v>
+        <v>0.09230769230769231</v>
       </c>
       <c r="C33" t="n" s="338">
-        <v>0.38461538461538464</v>
+        <v>0.36923076923076925</v>
       </c>
       <c r="D33" t="n" s="339">
-        <v>0.18461538461538463</v>
+        <v>0.4153846153846154</v>
       </c>
       <c r="E33" t="n" s="340">
-        <v>0.2153846153846154</v>
+        <v>0.06153846153846154</v>
       </c>
       <c r="F33" t="n" s="341">
-        <v>0.03076923076923077</v>
+        <v>0.06153846153846154</v>
       </c>
       <c r="G33" t="n" s="342">
         <v>0.0</v>
@@ -5101,19 +4777,19 @@
         <v>25</v>
       </c>
       <c r="B34" t="n" s="337">
-        <v>0.5076923076923077</v>
+        <v>0.2</v>
       </c>
       <c r="C34" t="n" s="338">
-        <v>0.24615384615384617</v>
+        <v>0.5230769230769231</v>
       </c>
       <c r="D34" t="n" s="339">
-        <v>0.09230769230769231</v>
+        <v>0.2</v>
       </c>
       <c r="E34" t="n" s="340">
-        <v>0.06153846153846154</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="F34" t="n" s="341">
-        <v>0.09230769230769231</v>
+        <v>0.046153846153846156</v>
       </c>
       <c r="G34" t="n" s="342">
         <v>0.0</v>
@@ -5124,19 +4800,19 @@
         <v>26</v>
       </c>
       <c r="B35" t="n" s="337">
-        <v>0.09230769230769231</v>
+        <v>0.18461538461538463</v>
       </c>
       <c r="C35" t="n" s="338">
-        <v>0.36923076923076925</v>
+        <v>0.38461538461538464</v>
       </c>
       <c r="D35" t="n" s="339">
-        <v>0.4153846153846154</v>
+        <v>0.18461538461538463</v>
       </c>
       <c r="E35" t="n" s="340">
-        <v>0.06153846153846154</v>
+        <v>0.2153846153846154</v>
       </c>
       <c r="F35" t="n" s="341">
-        <v>0.06153846153846154</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="G35" t="n" s="342">
         <v>0.0</v>
@@ -5147,19 +4823,19 @@
         <v>27</v>
       </c>
       <c r="B36" t="n" s="337">
+        <v>0.5076923076923077</v>
+      </c>
+      <c r="C36" t="n" s="338">
+        <v>0.24615384615384617</v>
+      </c>
+      <c r="D36" t="n" s="339">
+        <v>0.09230769230769231</v>
+      </c>
+      <c r="E36" t="n" s="340">
         <v>0.06153846153846154</v>
       </c>
-      <c r="C36" t="n" s="338">
+      <c r="F36" t="n" s="341">
         <v>0.09230769230769231</v>
-      </c>
-      <c r="D36" t="n" s="339">
-        <v>0.18461538461538463</v>
-      </c>
-      <c r="E36" t="n" s="340">
-        <v>0.5230769230769231</v>
-      </c>
-      <c r="F36" t="n" s="341">
-        <v>0.13846153846153847</v>
       </c>
       <c r="G36" t="n" s="342">
         <v>0.0</v>
@@ -5192,7 +4868,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="344">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -5241,31 +4917,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="373">
-        <v>0.8014039011057276</v>
+        <v>0.7029419097481926</v>
       </c>
       <c r="B6" t="n" s="374">
-        <v>0.8041227514498602</v>
+        <v>0.7167752375826106</v>
       </c>
       <c r="C6" t="n" s="375">
-        <v>0.7928768576276477</v>
+        <v>0.6307723577632292</v>
       </c>
       <c r="D6" t="n" s="376">
-        <v>0.3696668264169612</v>
+        <v>0.45757953015320574</v>
       </c>
       <c r="E6" t="n" s="377">
-        <v>4.1052381397118936</v>
+        <v>2.5307647236236215</v>
       </c>
       <c r="F6" t="n" s="378">
-        <v>0.036470246671837674</v>
+        <v>0.06222164879825482</v>
       </c>
       <c r="G6" t="n" s="379">
-        <v>2.9076923076923076</v>
+        <v>2.830769230769231</v>
       </c>
       <c r="H6" t="n" s="380">
-        <v>0.648993908000425</v>
+        <v>0.80174089426601</v>
       </c>
       <c r="I6" t="n" s="381">
-        <v>0.36118072854005584</v>
+        <v>0.48148366590413044</v>
       </c>
     </row>
     <row r="7">
@@ -5315,28 +4991,26 @@
         <v>28</v>
       </c>
       <c r="B11" t="n" s="400">
-        <v>0.7587742551161064</v>
+        <v>0.6550480769230766</v>
       </c>
       <c r="C11" t="n" s="401">
-        <v>0.7622762741381321</v>
+        <v>0.6554481613596888</v>
       </c>
       <c r="D11" t="n" s="402">
-        <v>0.7423486754682369</v>
+        <v>0.48748448555357715</v>
       </c>
       <c r="E11" t="n" s="403">
-        <v>0.3482910471152678</v>
+        <v>0.4874844855535774</v>
       </c>
       <c r="F11" t="n" s="404">
-        <v>3.2065637175023136</v>
+        <v>1.9023208929786966</v>
       </c>
       <c r="G11" t="n" s="405">
-        <v>0.045854870551033156</v>
-      </c>
-      <c r="H11" t="n" s="406">
-        <v>0.005409961231115121</v>
-      </c>
+        <v>0.08547019895788066</v>
+      </c>
+      <c r="H11" s="406"/>
       <c r="I11" t="n" s="407">
-        <v>0.3477171675883921</v>
+        <v>0.4874844855535774</v>
       </c>
     </row>
     <row r="12">
@@ -5344,28 +5018,26 @@
         <v>29</v>
       </c>
       <c r="B12" t="n" s="400">
-        <v>0.7785528493733743</v>
+        <v>0.5550715619166149</v>
       </c>
       <c r="C12" t="n" s="401">
-        <v>0.7816499006509479</v>
+        <v>0.575265624326714</v>
       </c>
       <c r="D12" t="n" s="402">
-        <v>0.7676491721815313</v>
+        <v>0.40377043900190945</v>
       </c>
       <c r="E12" t="n" s="403">
-        <v>0.37368218717633206</v>
+        <v>0.40377043900190945</v>
       </c>
       <c r="F12" t="n" s="404">
-        <v>3.5798009846627594</v>
+        <v>1.3544126806661387</v>
       </c>
       <c r="G12" t="n" s="405">
-        <v>0.04107828269702189</v>
-      </c>
-      <c r="H12" t="n" s="406">
-        <v>0.00939527767409654</v>
-      </c>
+        <v>0.10405373178319452</v>
+      </c>
+      <c r="H12" s="406"/>
       <c r="I12" t="n" s="407">
-        <v>0.3593039962934214</v>
+        <v>0.40377043900190945</v>
       </c>
     </row>
     <row r="13">
@@ -5373,561 +5045,247 @@
         <v>30</v>
       </c>
       <c r="B13" t="n" s="400">
-        <v>0.7783014825606307</v>
+        <v>0.6336520622234907</v>
       </c>
       <c r="C13" t="n" s="401">
-        <v>0.780941766785925</v>
+        <v>0.6500019905522039</v>
       </c>
       <c r="D13" t="n" s="402">
-        <v>0.7586331537189599</v>
+        <v>0.4814836659041304</v>
       </c>
       <c r="E13" t="n" s="403">
-        <v>0.37271276633621575</v>
+        <v>0.4814836659041304</v>
       </c>
       <c r="F13" t="n" s="404">
-        <v>3.5649961899525957</v>
+        <v>1.8571591066410178</v>
       </c>
       <c r="G13" t="n" s="405">
-        <v>0.04165932110471642</v>
-      </c>
-      <c r="H13" t="n" s="406">
-        <v>0.005620530679954436</v>
-      </c>
+        <v>0.08659426814761524</v>
+      </c>
+      <c r="H13" s="406"/>
       <c r="I13" t="n" s="407">
-        <v>0.3663976028500861</v>
+        <v>0.48148366590413044</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="395">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="411">
         <v>31</v>
       </c>
-      <c r="B14" t="n" s="400">
-        <v>0.7942890375109043</v>
-      </c>
-      <c r="C14" t="n" s="401">
-        <v>0.7971766479074162</v>
-      </c>
-      <c r="D14" t="n" s="402">
-        <v>0.781040850779029</v>
-      </c>
-      <c r="E14" t="n" s="403">
-        <v>0.3957946547866449</v>
-      </c>
-      <c r="F14" t="n" s="404">
-        <v>3.9303987419728945</v>
-      </c>
-      <c r="G14" t="n" s="405">
-        <v>0.03790082948676898</v>
-      </c>
-      <c r="H14" t="n" s="406">
-        <v>0.006931537545782679</v>
-      </c>
-      <c r="I14" t="n" s="407">
-        <v>0.3844198110619279</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="395">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="425">
         <v>32</v>
       </c>
-      <c r="B15" t="n" s="400">
-        <v>0.7678700003302837</v>
-      </c>
-      <c r="C15" t="n" s="401">
-        <v>0.771291748144475</v>
-      </c>
-      <c r="D15" t="n" s="402">
-        <v>0.7504543349466672</v>
-      </c>
-      <c r="E15" t="n" s="403">
-        <v>0.35982127463429414</v>
-      </c>
-      <c r="F15" t="n" s="404">
-        <v>3.3723826835583526</v>
-      </c>
-      <c r="G15" t="n" s="405">
-        <v>0.04324553373553125</v>
-      </c>
-      <c r="H15" t="n" s="406">
-        <v>0.005847937673270584</v>
-      </c>
-      <c r="I15" t="n" s="407">
-        <v>0.3593039962934214</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="395">
+      <c r="C17" t="s" s="425">
         <v>33</v>
       </c>
-      <c r="B16" t="n" s="400">
-        <v>0.7801170974037496</v>
-      </c>
-      <c r="C16" t="n" s="401">
-        <v>0.7834444317446995</v>
-      </c>
-      <c r="D16" t="n" s="402">
-        <v>0.7640488292469376</v>
-      </c>
-      <c r="E16" t="n" s="403">
-        <v>0.37615362340543185</v>
-      </c>
-      <c r="F16" t="n" s="404">
-        <v>3.617752422884301</v>
-      </c>
-      <c r="G16" t="n" s="405">
-        <v>0.040659760648139184</v>
-      </c>
-      <c r="H16" t="n" s="406">
-        <v>0.0072584871754371935</v>
-      </c>
-      <c r="I16" t="n" s="407">
-        <v>0.3663976028500861</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="395">
+      <c r="D17" t="s" s="425">
         <v>34</v>
       </c>
-      <c r="B17" t="n" s="400">
-        <v>0.7678772756676832</v>
-      </c>
-      <c r="C17" t="n" s="401">
-        <v>0.7723542956758176</v>
-      </c>
-      <c r="D17" t="n" s="402">
-        <v>0.7500648002385966</v>
-      </c>
-      <c r="E17" t="n" s="403">
-        <v>0.3612122314645416</v>
-      </c>
-      <c r="F17" t="n" s="404">
-        <v>3.392790994974956</v>
-      </c>
-      <c r="G17" t="n" s="405">
-        <v>0.04299672545864525</v>
-      </c>
-      <c r="H17" t="n" s="406">
-        <v>0.007038407342529507</v>
-      </c>
-      <c r="I17" t="n" s="407">
-        <v>0.3477171675883921</v>
+      <c r="E17" t="s" s="425">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s" s="425">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="425">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="425">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="421">
+        <v>28</v>
+      </c>
+      <c r="B18" t="n" s="426">
+        <v>65.0</v>
+      </c>
+      <c r="C18" t="n" s="427">
+        <v>0.8335564263007856</v>
+      </c>
+      <c r="D18" t="n" s="428">
+        <v>0.7865146981946339</v>
+      </c>
+      <c r="E18" t="n" s="429">
+        <v>0.6064855387738946</v>
+      </c>
+      <c r="F18" t="n" s="430">
+        <v>0.5141672241256275</v>
+      </c>
+      <c r="G18" t="n" s="431">
+        <v>3.0923076923076924</v>
+      </c>
+      <c r="H18" t="n" s="432">
+        <v>1.2083443854490135</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="421">
+        <v>29</v>
+      </c>
+      <c r="B19" t="n" s="426">
+        <v>65.0</v>
+      </c>
+      <c r="C19" t="n" s="427">
+        <v>0.8013951295686682</v>
+      </c>
+      <c r="D19" t="n" s="428">
+        <v>0.8214396071959689</v>
+      </c>
+      <c r="E19" t="n" s="429">
+        <v>0.6846752438213085</v>
+      </c>
+      <c r="F19" t="n" s="430">
+        <v>0.5746950127856395</v>
+      </c>
+      <c r="G19" t="n" s="431">
+        <v>2.3076923076923075</v>
+      </c>
+      <c r="H19" t="n" s="432">
+        <v>0.9172492321316785</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="421">
+        <v>30</v>
+      </c>
+      <c r="B20" t="n" s="426">
+        <v>65.0</v>
+      </c>
+      <c r="C20" t="n" s="427">
+        <v>0.7541975285175393</v>
+      </c>
+      <c r="D20" t="n" s="428">
+        <v>0.7890181977723423</v>
+      </c>
+      <c r="E20" t="n" s="429">
+        <v>0.6125430252182017</v>
+      </c>
+      <c r="F20" t="n" s="430">
+        <v>0.5094424238150709</v>
+      </c>
+      <c r="G20" t="n" s="431">
+        <v>3.0923076923076924</v>
+      </c>
+      <c r="H20" t="n" s="432">
+        <v>0.8789744898722339</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s" s="411">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21"/>
-      <c r="B21" t="s" s="425">
-        <v>36</v>
-      </c>
-      <c r="C21" t="s" s="425">
+    <row r="23">
+      <c r="A23" t="s" s="436">
         <v>37</v>
       </c>
-      <c r="D21" t="s" s="425">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="450">
         <v>38</v>
       </c>
-      <c r="E21" t="s" s="425">
+      <c r="C24" t="s" s="450">
         <v>39</v>
       </c>
-      <c r="F21" t="s" s="425">
+      <c r="D24" t="s" s="450">
         <v>40</v>
       </c>
-      <c r="G21" t="s" s="425">
-        <v>9</v>
-      </c>
-      <c r="H21" t="s" s="425">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="421">
+      <c r="E24" t="s" s="450">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="450">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="450">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="446">
         <v>28</v>
       </c>
-      <c r="B22" t="n" s="426">
-        <v>65.0</v>
-      </c>
-      <c r="C22" t="n" s="427">
-        <v>0.7738610416087628</v>
-      </c>
-      <c r="D22" t="n" s="428">
-        <v>0.7455795527622217</v>
-      </c>
-      <c r="E22" t="n" s="429">
-        <v>0.7021827751399652</v>
-      </c>
-      <c r="F22" t="n" s="430">
-        <v>0.6255920383513893</v>
-      </c>
-      <c r="G22" t="n" s="431">
-        <v>3.0923076923076924</v>
-      </c>
-      <c r="H22" t="n" s="432">
-        <v>1.2083443854490135</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="421">
+      <c r="B25" t="n" s="451">
+        <v>0.13846153846153847</v>
+      </c>
+      <c r="C25" t="n" s="452">
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="D25" t="n" s="453">
+        <v>0.2923076923076923</v>
+      </c>
+      <c r="E25" t="n" s="454">
+        <v>0.3076923076923077</v>
+      </c>
+      <c r="F25" t="n" s="455">
+        <v>0.1076923076923077</v>
+      </c>
+      <c r="G25" t="n" s="456">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="446">
         <v>29</v>
       </c>
-      <c r="B23" t="n" s="426">
-        <v>65.0</v>
-      </c>
-      <c r="C23" t="n" s="427">
-        <v>0.6513713348024643</v>
-      </c>
-      <c r="D23" t="n" s="428">
-        <v>0.665332081557849</v>
-      </c>
-      <c r="E23" t="n" s="429">
-        <v>0.5751179321376808</v>
-      </c>
-      <c r="F23" t="n" s="430">
-        <v>0.5191329258049948</v>
-      </c>
-      <c r="G23" t="n" s="431">
-        <v>2.5692307692307694</v>
-      </c>
-      <c r="H23" t="n" s="432">
-        <v>0.8654700812497573</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="421">
+      <c r="B26" t="n" s="451">
+        <v>0.2</v>
+      </c>
+      <c r="C26" t="n" s="452">
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="D26" t="n" s="453">
+        <v>0.3384615384615385</v>
+      </c>
+      <c r="E26" t="n" s="454">
+        <v>0.06153846153846154</v>
+      </c>
+      <c r="F26" t="n" s="455">
+        <v>0.015384615384615385</v>
+      </c>
+      <c r="G26" t="n" s="456">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="446">
         <v>30</v>
       </c>
-      <c r="B24" t="n" s="426">
-        <v>65.0</v>
-      </c>
-      <c r="C24" t="n" s="427">
-        <v>0.6480504332515451</v>
-      </c>
-      <c r="D24" t="n" s="428">
-        <v>0.6683958892783793</v>
-      </c>
-      <c r="E24" t="n" s="429">
-        <v>0.5969849964427694</v>
-      </c>
-      <c r="F24" t="n" s="430">
-        <v>0.5373326656377387</v>
-      </c>
-      <c r="G24" t="n" s="431">
-        <v>2.723076923076923</v>
-      </c>
-      <c r="H24" t="n" s="432">
-        <v>0.7396724846953445</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="421">
-        <v>31</v>
-      </c>
-      <c r="B25" t="n" s="426">
-        <v>65.0</v>
-      </c>
-      <c r="C25" t="n" s="427">
-        <v>0.5866554143505242</v>
-      </c>
-      <c r="D25" t="n" s="428">
-        <v>0.5954466962010395</v>
-      </c>
-      <c r="E25" t="n" s="429">
-        <v>0.4792262923963607</v>
-      </c>
-      <c r="F25" t="n" s="430">
-        <v>0.42584083334293055</v>
-      </c>
-      <c r="G25" t="n" s="431">
-        <v>3.8153846153846156</v>
-      </c>
-      <c r="H25" t="n" s="432">
-        <v>0.9336137399292147</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="421">
-        <v>32</v>
-      </c>
-      <c r="B26" t="n" s="426">
-        <v>65.0</v>
-      </c>
-      <c r="C26" t="n" s="427">
-        <v>0.7276793178144546</v>
-      </c>
-      <c r="D26" t="n" s="428">
-        <v>0.7091388258556036</v>
-      </c>
-      <c r="E26" t="n" s="429">
-        <v>0.6520181978750559</v>
-      </c>
-      <c r="F26" t="n" s="430">
-        <v>0.5770006462873534</v>
-      </c>
-      <c r="G26" t="n" s="431">
-        <v>2.753846153846154</v>
-      </c>
-      <c r="H26" t="n" s="432">
-        <v>1.104405513596133</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="421">
-        <v>33</v>
-      </c>
-      <c r="B27" t="n" s="426">
-        <v>65.0</v>
-      </c>
-      <c r="C27" t="n" s="427">
-        <v>0.6451563392981897</v>
-      </c>
-      <c r="D27" t="n" s="428">
-        <v>0.6575212267812947</v>
-      </c>
-      <c r="E27" t="n" s="429">
-        <v>0.5749389747605688</v>
-      </c>
-      <c r="F27" t="n" s="430">
-        <v>0.5088889872459076</v>
-      </c>
-      <c r="G27" t="n" s="431">
-        <v>3.0923076923076924</v>
-      </c>
-      <c r="H27" t="n" s="432">
-        <v>0.8789744898722339</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="421">
-        <v>34</v>
-      </c>
-      <c r="B28" t="n" s="426">
-        <v>65.0</v>
-      </c>
-      <c r="C28" t="n" s="427">
-        <v>0.7046510828259384</v>
-      </c>
-      <c r="D28" t="n" s="428">
-        <v>0.7047427740078581</v>
-      </c>
-      <c r="E28" t="n" s="429">
-        <v>0.6456814928707124</v>
-      </c>
-      <c r="F28" t="n" s="430">
-        <v>0.5781280557056644</v>
-      </c>
-      <c r="G28" t="n" s="431">
-        <v>2.3076923076923075</v>
-      </c>
-      <c r="H28" t="n" s="432">
-        <v>0.9172492321316785</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="436">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32"/>
-      <c r="B32" t="s" s="450">
-        <v>42</v>
-      </c>
-      <c r="C32" t="s" s="450">
-        <v>43</v>
-      </c>
-      <c r="D32" t="s" s="450">
-        <v>44</v>
-      </c>
-      <c r="E32" t="s" s="450">
-        <v>45</v>
-      </c>
-      <c r="F32" t="s" s="450">
-        <v>46</v>
-      </c>
-      <c r="G32" t="s" s="450">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="446">
-        <v>28</v>
-      </c>
-      <c r="B33" t="n" s="451">
-        <v>0.13846153846153847</v>
-      </c>
-      <c r="C33" t="n" s="452">
-        <v>0.15384615384615385</v>
-      </c>
-      <c r="D33" t="n" s="453">
-        <v>0.2923076923076923</v>
-      </c>
-      <c r="E33" t="n" s="454">
-        <v>0.3076923076923077</v>
-      </c>
-      <c r="F33" t="n" s="455">
-        <v>0.1076923076923077</v>
-      </c>
-      <c r="G33" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="446">
-        <v>29</v>
-      </c>
-      <c r="B34" t="n" s="451">
+      <c r="B27" t="n" s="451">
         <v>0.03076923076923077</v>
       </c>
-      <c r="C34" t="n" s="452">
-        <v>0.5384615384615384</v>
-      </c>
-      <c r="D34" t="n" s="453">
-        <v>0.3076923076923077</v>
-      </c>
-      <c r="E34" t="n" s="454">
-        <v>0.07692307692307693</v>
-      </c>
-      <c r="F34" t="n" s="455">
-        <v>0.046153846153846156</v>
-      </c>
-      <c r="G34" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="446">
-        <v>30</v>
-      </c>
-      <c r="B35" t="n" s="451">
-        <v>0.015384615384615385</v>
-      </c>
-      <c r="C35" t="n" s="452">
-        <v>0.38461538461538464</v>
-      </c>
-      <c r="D35" t="n" s="453">
-        <v>0.47692307692307695</v>
-      </c>
-      <c r="E35" t="n" s="454">
-        <v>0.1076923076923077</v>
-      </c>
-      <c r="F35" t="n" s="455">
-        <v>0.015384615384615385</v>
-      </c>
-      <c r="G35" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="446">
-        <v>31</v>
-      </c>
-      <c r="B36" t="n" s="451">
-        <v>0.0</v>
-      </c>
-      <c r="C36" t="n" s="452">
+      <c r="C27" t="n" s="452">
+        <v>0.18461538461538463</v>
+      </c>
+      <c r="D27" t="n" s="453">
+        <v>0.5076923076923077</v>
+      </c>
+      <c r="E27" t="n" s="454">
+        <v>0.2153846153846154</v>
+      </c>
+      <c r="F27" t="n" s="455">
         <v>0.06153846153846154</v>
       </c>
-      <c r="D36" t="n" s="453">
-        <v>0.35384615384615387</v>
-      </c>
-      <c r="E36" t="n" s="454">
-        <v>0.2923076923076923</v>
-      </c>
-      <c r="F36" t="n" s="455">
-        <v>0.2923076923076923</v>
-      </c>
-      <c r="G36" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="446">
-        <v>32</v>
-      </c>
-      <c r="B37" t="n" s="451">
-        <v>0.09230769230769231</v>
-      </c>
-      <c r="C37" t="n" s="452">
-        <v>0.4</v>
-      </c>
-      <c r="D37" t="n" s="453">
-        <v>0.24615384615384617</v>
-      </c>
-      <c r="E37" t="n" s="454">
-        <v>0.18461538461538463</v>
-      </c>
-      <c r="F37" t="n" s="455">
-        <v>0.07692307692307693</v>
-      </c>
-      <c r="G37" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="446">
-        <v>33</v>
-      </c>
-      <c r="B38" t="n" s="451">
-        <v>0.03076923076923077</v>
-      </c>
-      <c r="C38" t="n" s="452">
-        <v>0.18461538461538463</v>
-      </c>
-      <c r="D38" t="n" s="453">
-        <v>0.5076923076923077</v>
-      </c>
-      <c r="E38" t="n" s="454">
-        <v>0.2153846153846154</v>
-      </c>
-      <c r="F38" t="n" s="455">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="G38" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="446">
-        <v>34</v>
-      </c>
-      <c r="B39" t="n" s="451">
-        <v>0.2</v>
-      </c>
-      <c r="C39" t="n" s="452">
-        <v>0.38461538461538464</v>
-      </c>
-      <c r="D39" t="n" s="453">
-        <v>0.3384615384615385</v>
-      </c>
-      <c r="E39" t="n" s="454">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="F39" t="n" s="455">
-        <v>0.015384615384615385</v>
-      </c>
-      <c r="G39" t="n" s="456">
+      <c r="G27" t="n" s="456">
         <v>0.0</v>
       </c>
     </row>
